--- a/BUG tracker/CSI_Testreport_format.xlsx
+++ b/BUG tracker/CSI_Testreport_format.xlsx
@@ -85,11 +85,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,6 +115,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -124,86 +148,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,14 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,16 +214,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,13 +274,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,19 +364,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,145 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +669,89 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,236 +770,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,10 +1503,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L9"/>
+  <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1663,6 +1663,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="2:2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:J7"/>
